--- a/dados iypt.xlsx
+++ b/dados iypt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e7a01b2c0ff13c9a/Área de Trabalho/flado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{F6231C8F-1D41-484E-A66F-A44FC3D65B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8347DA26-7920-4A5A-99EE-50CA90850D1F}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="8_{F6231C8F-1D41-484E-A66F-A44FC3D65B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9CD822A-FAFA-46EC-A7CC-A90D15C1B976}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA78291E-974B-4465-8370-FB667613188C}"/>
   </bookViews>
@@ -189,7 +189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -232,6 +232,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1265,16 +1268,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>471487</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1602,7 +1605,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,15 +1663,15 @@
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="K2" s="16"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -1692,15 +1695,15 @@
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>4</v>
       </c>
+      <c r="K3" s="17"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1724,15 +1727,15 @@
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="K4" s="17"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -1756,15 +1759,15 @@
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>1</v>
       </c>
+      <c r="K5" s="17"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -1788,15 +1791,15 @@
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="13" t="s">
+      <c r="J6" s="13" t="s">
         <v>2</v>
       </c>
+      <c r="K6" s="18"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3">

--- a/dados iypt.xlsx
+++ b/dados iypt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e7a01b2c0ff13c9a/Área de Trabalho/flado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="8_{F6231C8F-1D41-484E-A66F-A44FC3D65B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9CD822A-FAFA-46EC-A7CC-A90D15C1B976}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="8_{F6231C8F-1D41-484E-A66F-A44FC3D65B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDCA400F-0681-4A2F-8A4C-6E5C81778D8D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA78291E-974B-4465-8370-FB667613188C}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>A: H/R - eixo X</t>
   </si>
   <si>
-    <t>F: média de B e C</t>
-  </si>
-  <si>
     <t>G: barras de erro</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>C: probabilidade de lado obtida em 100 lançamentos</t>
+  </si>
+  <si>
+    <t>F: média de C e D (pontos do gráfico)</t>
   </si>
 </sst>
 </file>
@@ -189,7 +189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -235,6 +235,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1605,12 +1610,14 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="8" width="9.140625" style="21"/>
+    <col min="9" max="9" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1633,7 +1640,7 @@
         <v>2.7199999999999998</v>
       </c>
       <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1662,7 +1669,7 @@
         <v>0.75</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="I2" s="19"/>
       <c r="J2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1694,9 +1701,9 @@
         <v>0.40500000000000025</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3" s="17"/>
       <c r="L3" s="11"/>
@@ -1726,9 +1733,9 @@
         <v>0.25</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="11"/>
@@ -1758,9 +1765,9 @@
         <v>0.21999999999999975</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="10" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="11"/>
@@ -1790,9 +1797,9 @@
         <v>5.5299999999999994</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="18"/>
       <c r="L6" s="14"/>
@@ -1822,7 +1829,7 @@
         <v>3.4400000000000013</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1852,7 +1859,7 @@
         <v>1.1550000000000011</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1882,7 +1889,7 @@
         <v>2.5300000000000011</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1912,7 +1919,7 @@
         <v>1.9649999999999999</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1942,7 +1949,7 @@
         <v>0.5</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1972,7 +1979,7 @@
         <v>1.1850000000000023</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -2002,7 +2009,7 @@
         <v>3.0949999999999989</v>
       </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -2025,7 +2032,7 @@
         <v>2.5</v>
       </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -2048,7 +2055,7 @@
         <v>0.125</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -2071,7 +2078,7 @@
         <v>0.59499999999999886</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -2094,7 +2101,7 @@
         <v>0.84499999999999886</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -2117,7 +2124,7 @@
         <v>3.9050000000000011</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -2140,7 +2147,7 @@
         <v>0.84499999999999886</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -2163,7 +2170,7 @@
         <v>1.25</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="I20" s="19"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -2186,7 +2193,7 @@
         <v>0.87999999999999545</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -2209,7 +2216,7 @@
         <v>0.21999999999999886</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="I22" s="19"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -2232,7 +2239,7 @@
         <v>1.0949999999999989</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="I23" s="19"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
@@ -2243,7 +2250,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="I24" s="19"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
@@ -2254,7 +2261,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
@@ -2265,7 +2272,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -2276,7 +2283,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="I27" s="19"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
@@ -2287,7 +2294,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="I28" s="19"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
@@ -2298,7 +2305,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
@@ -2309,7 +2316,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="I30" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/dados iypt.xlsx
+++ b/dados iypt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e7a01b2c0ff13c9a/Área de Trabalho/flado/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maviv\flado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="8_{F6231C8F-1D41-484E-A66F-A44FC3D65B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDCA400F-0681-4A2F-8A4C-6E5C81778D8D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DB6E4C-8759-4A2F-BEB9-F817BD020CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA78291E-974B-4465-8370-FB667613188C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA78291E-974B-4465-8370-FB667613188C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -40,24 +40,26 @@
     <t>A: H/R - eixo X</t>
   </si>
   <si>
-    <t>G: barras de erro</t>
+    <t>B e F: média de C e D (pontos do gráfico)</t>
   </si>
   <si>
-    <t>D: probabilidade de lado obtida em mais 100 lançamentos</t>
+    <t>C e G: barras de erro</t>
   </si>
   <si>
-    <t>C: probabilidade de lado obtida em 100 lançamentos</t>
+    <t>E: probabilidade de lado obtida em 100 lançamentos</t>
   </si>
   <si>
-    <t>F: média de C e D (pontos do gráfico)</t>
+    <t>F: probabilidade de lado obtida em mais 100 lançamentos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -189,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -240,6 +242,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,78 +469,78 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Planilha1!$F$1:$F$23</c:f>
+              <c:f>Planilha1!$H$1:$H$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>4.53</c:v>
+                  <c:v>4.53E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.06</c:v>
+                  <c:v>3.0600000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8449999999999998</c:v>
+                  <c:v>3.8449999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.44</c:v>
+                  <c:v>2.4399999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7200000000000006</c:v>
+                  <c:v>4.7200000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.03</c:v>
+                  <c:v>0.14030000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.560000000000002</c:v>
+                  <c:v>0.1956</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.535</c:v>
+                  <c:v>0.23535</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.28</c:v>
+                  <c:v>0.21279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.655000000000001</c:v>
+                  <c:v>0.27655000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.56</c:v>
+                  <c:v>0.39560000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41.564999999999998</c:v>
+                  <c:v>0.41565000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45.905000000000001</c:v>
+                  <c:v>0.45905000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>54.25</c:v>
+                  <c:v>0.54249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>57.935000000000002</c:v>
+                  <c:v>0.57935000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>57.155000000000001</c:v>
+                  <c:v>0.57155</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>70.965000000000003</c:v>
+                  <c:v>0.70965000000000011</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>76.594999999999999</c:v>
+                  <c:v>0.76595000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>78.034999999999997</c:v>
+                  <c:v>0.78034999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>83.81</c:v>
+                  <c:v>0.83810000000000007</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>86.5</c:v>
+                  <c:v>0.86499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>86.28</c:v>
+                  <c:v>0.86280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>87.094999999999999</c:v>
+                  <c:v>0.87095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -620,7 +646,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1273,13 +1299,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>157162</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>461962</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
@@ -1607,716 +1633,919 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1E2169-3F9B-405F-A670-20887203AD7B}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="8" width="9.140625" style="21"/>
-    <col min="9" max="9" width="9.140625" style="20"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="9.109375" style="21"/>
+    <col min="4" max="4" width="8.88671875" style="21"/>
+    <col min="5" max="10" width="9.109375" style="21"/>
+    <col min="11" max="11" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3">
         <v>0.3</v>
       </c>
-      <c r="C1" s="4">
-        <v>1.81</v>
-      </c>
-      <c r="D1" s="4">
-        <v>7.25</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4">
-        <f>AVERAGE(C1:D1)</f>
-        <v>4.53</v>
-      </c>
-      <c r="G1" s="5">
-        <f>((D1-F1)^2)^0.5</f>
-        <v>2.7199999999999998</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="28">
+        <v>4.53E-2</v>
+      </c>
+      <c r="C1" s="27">
+        <v>2.7199999999999995E-2</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="22">
+        <f>1.81/100</f>
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="F1" s="22">
+        <f>7.25/100</f>
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="22">
+        <f>AVERAGE(E1:F1)</f>
+        <v>4.53E-2</v>
+      </c>
+      <c r="I1" s="23">
+        <f>((F1-H1)^2)^0.5</f>
+        <v>2.7199999999999995E-2</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>0.4</v>
       </c>
-      <c r="C2" s="4">
-        <v>3.81</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2.31</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4">
-        <f>AVERAGE(C2:D2)</f>
-        <v>3.06</v>
-      </c>
-      <c r="G2" s="5">
-        <f t="shared" ref="G2:G23" si="0">((D2-F2)^2)^0.5</f>
-        <v>0.75</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="7" t="s">
+      <c r="B2" s="28">
+        <v>3.0600000000000002E-2</v>
+      </c>
+      <c r="C2" s="27">
+        <v>7.5000000000000032E-3</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="22">
+        <f>3.81/100</f>
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="F2" s="22">
+        <f>2.31/100</f>
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="22">
+        <f>AVERAGE(E2:F2)</f>
+        <v>3.0600000000000002E-2</v>
+      </c>
+      <c r="I2" s="23">
+        <f t="shared" ref="I2:I23" si="0">((F2-H2)^2)^0.5</f>
+        <v>7.5000000000000032E-3</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="M2" s="16"/>
       <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="11"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="11"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0.5</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4">
-        <v>3.44</v>
-      </c>
-      <c r="D3" s="4">
-        <v>4.25</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
-        <f t="shared" ref="F3:F23" si="1">AVERAGE(C3:D3)</f>
-        <v>3.8449999999999998</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="B3" s="28">
+        <v>3.8449999999999998E-2</v>
+      </c>
+      <c r="C3" s="29">
+        <v>4.050000000000005E-3</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="22">
+        <f>3.44/100</f>
+        <v>3.44E-2</v>
+      </c>
+      <c r="F3" s="22">
+        <f>4.25/100</f>
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="22">
+        <f t="shared" ref="H3:H23" si="1">AVERAGE(E3:F3)</f>
+        <v>3.8449999999999998E-2</v>
+      </c>
+      <c r="I3" s="23">
         <f t="shared" si="0"/>
-        <v>0.40500000000000025</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="10" t="s">
+        <v>4.050000000000005E-3</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="M3" s="17"/>
       <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
+      <c r="O3" s="11"/>
       <c r="P3" s="11"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="11"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>0.6</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4">
-        <v>2.69</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2.19</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
+      <c r="B4" s="28">
+        <v>2.4399999999999998E-2</v>
+      </c>
+      <c r="C4" s="29">
+        <v>2.4999999999999988E-3</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="22">
+        <f>2.69/100</f>
+        <v>2.69E-2</v>
+      </c>
+      <c r="F4" s="22">
+        <f>2.19/100</f>
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="22">
         <f t="shared" si="1"/>
-        <v>2.44</v>
-      </c>
-      <c r="G4" s="5">
+        <v>2.4399999999999998E-2</v>
+      </c>
+      <c r="I4" s="23">
         <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+        <v>2.4999999999999988E-3</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="17"/>
       <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
+      <c r="O4" s="11"/>
       <c r="P4" s="11"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="12"/>
+      <c r="R4" s="11"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>0.7</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="D5" s="4">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
+      <c r="B5" s="28">
+        <v>4.7200000000000006E-2</v>
+      </c>
+      <c r="C5" s="29">
+        <v>2.2000000000000006E-3</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="22">
+        <f>4.5/100</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F5" s="22">
+        <f>4.94/100</f>
+        <v>4.9400000000000006E-2</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="22">
         <f t="shared" si="1"/>
-        <v>4.7200000000000006</v>
-      </c>
-      <c r="G5" s="5">
+        <v>4.7200000000000006E-2</v>
+      </c>
+      <c r="I5" s="23">
         <f t="shared" si="0"/>
-        <v>0.21999999999999975</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+        <v>2.2000000000000006E-3</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="17"/>
       <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
+      <c r="O5" s="11"/>
       <c r="P5" s="11"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q5" s="12"/>
+      <c r="R5" s="11"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>0.8</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>19.559999999999999</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="B6" s="28">
+        <v>0.14030000000000001</v>
+      </c>
+      <c r="C6" s="29">
+        <v>5.5299999999999988E-2</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="22">
+        <f>8.5/100</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F6" s="22">
+        <f>19.56/100</f>
+        <v>0.1956</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="22">
         <f t="shared" si="1"/>
-        <v>14.03</v>
-      </c>
-      <c r="G6" s="5">
+        <v>0.14030000000000001</v>
+      </c>
+      <c r="I6" s="23">
         <f t="shared" si="0"/>
-        <v>5.5299999999999994</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+        <v>5.5299999999999988E-2</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="18"/>
       <c r="N6" s="14"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="11"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>0.9</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4">
-        <v>16.12</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
+      <c r="B7" s="28">
+        <v>0.1956</v>
+      </c>
+      <c r="C7" s="29">
+        <v>3.4399999999999986E-2</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="22">
+        <f>23/100</f>
+        <v>0.23</v>
+      </c>
+      <c r="F7" s="22">
+        <f>16.12/100</f>
+        <v>0.16120000000000001</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="22">
         <f t="shared" si="1"/>
-        <v>19.560000000000002</v>
-      </c>
-      <c r="G7" s="5">
+        <v>0.1956</v>
+      </c>
+      <c r="I7" s="23">
         <f t="shared" si="0"/>
-        <v>3.4400000000000013</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+        <v>3.4399999999999986E-2</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="19"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
-        <v>22.38</v>
-      </c>
-      <c r="D8" s="4">
-        <v>24.69</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
+      <c r="B8" s="26">
+        <v>0.23535</v>
+      </c>
+      <c r="C8" s="24">
+        <v>1.1550000000000005E-2</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="22">
+        <f>22.38/100</f>
+        <v>0.2238</v>
+      </c>
+      <c r="F8" s="22">
+        <f>24.69/100</f>
+        <v>0.24690000000000001</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="22">
         <f t="shared" si="1"/>
-        <v>23.535</v>
-      </c>
-      <c r="G8" s="5">
+        <v>0.23535</v>
+      </c>
+      <c r="I8" s="23">
         <f t="shared" si="0"/>
-        <v>1.1550000000000011</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+        <v>1.1550000000000005E-2</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4">
-        <v>23.81</v>
-      </c>
-      <c r="D9" s="4">
-        <v>18.75</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4">
+      <c r="B9" s="26">
+        <v>0.21279999999999999</v>
+      </c>
+      <c r="C9" s="24">
+        <v>2.5299999999999989E-2</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="22">
+        <f>23.81/100</f>
+        <v>0.23809999999999998</v>
+      </c>
+      <c r="F9" s="22">
+        <f>18.75/100</f>
+        <v>0.1875</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="22">
         <f t="shared" si="1"/>
-        <v>21.28</v>
-      </c>
-      <c r="G9" s="5">
+        <v>0.21279999999999999</v>
+      </c>
+      <c r="I9" s="23">
         <f t="shared" si="0"/>
-        <v>2.5300000000000011</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+        <v>2.5299999999999989E-2</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1.2</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4">
-        <v>25.69</v>
-      </c>
-      <c r="D10" s="4">
-        <v>29.62</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
+      <c r="B10" s="26">
+        <v>0.27655000000000002</v>
+      </c>
+      <c r="C10" s="24">
+        <v>1.9650000000000001E-2</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="22">
+        <f>25.69/100</f>
+        <v>0.25690000000000002</v>
+      </c>
+      <c r="F10" s="22">
+        <f>29.62/100</f>
+        <v>0.29620000000000002</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="22">
         <f t="shared" si="1"/>
-        <v>27.655000000000001</v>
-      </c>
-      <c r="G10" s="5">
+        <v>0.27655000000000002</v>
+      </c>
+      <c r="I10" s="23">
         <f t="shared" si="0"/>
-        <v>1.9649999999999999</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+        <v>1.9650000000000001E-2</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1.3</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5">
-        <v>40.06</v>
-      </c>
-      <c r="D11" s="5">
-        <v>39.06</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4">
+      <c r="B11" s="26">
+        <v>0.39560000000000001</v>
+      </c>
+      <c r="C11" s="25">
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="23">
+        <f>40.06/100</f>
+        <v>0.40060000000000001</v>
+      </c>
+      <c r="F11" s="23">
+        <f>39.06/100</f>
+        <v>0.3906</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="22">
         <f t="shared" si="1"/>
-        <v>39.56</v>
-      </c>
-      <c r="G11" s="5">
+        <v>0.39560000000000001</v>
+      </c>
+      <c r="I11" s="23">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1.4</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5">
-        <v>40.380000000000003</v>
-      </c>
-      <c r="D12" s="5">
-        <v>42.75</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4">
+      <c r="B12" s="26">
+        <v>0.41565000000000002</v>
+      </c>
+      <c r="C12" s="25">
+        <v>1.1849999999999972E-2</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="23">
+        <f>40.38/100</f>
+        <v>0.40380000000000005</v>
+      </c>
+      <c r="F12" s="23">
+        <f>42.75/100</f>
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="22">
         <f t="shared" si="1"/>
-        <v>41.564999999999998</v>
-      </c>
-      <c r="G12" s="5">
+        <v>0.41565000000000002</v>
+      </c>
+      <c r="I12" s="23">
         <f t="shared" si="0"/>
-        <v>1.1850000000000023</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+        <v>1.1849999999999972E-2</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="19"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1.5</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5">
-        <v>49</v>
-      </c>
-      <c r="D13" s="5">
-        <v>42.81</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4">
+      <c r="B13" s="26">
+        <v>0.45905000000000001</v>
+      </c>
+      <c r="C13" s="25">
+        <v>3.0949999999999978E-2</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="23">
+        <f>49/100</f>
+        <v>0.49</v>
+      </c>
+      <c r="F13" s="23">
+        <f>42.81/100</f>
+        <v>0.42810000000000004</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="22">
         <f t="shared" si="1"/>
-        <v>45.905000000000001</v>
-      </c>
-      <c r="G13" s="5">
+        <v>0.45905000000000001</v>
+      </c>
+      <c r="I13" s="23">
         <f t="shared" si="0"/>
-        <v>3.0949999999999989</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3.0949999999999978E-2</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1.6</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5">
-        <v>51.75</v>
-      </c>
-      <c r="D14" s="5">
-        <v>56.75</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4">
+      <c r="B14" s="26">
+        <v>0.54249999999999998</v>
+      </c>
+      <c r="C14" s="25">
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="23">
+        <f>51.75/100</f>
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="F14" s="23">
+        <f>56.75/100</f>
+        <v>0.5675</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="22">
         <f t="shared" si="1"/>
-        <v>54.25</v>
-      </c>
-      <c r="G14" s="5">
+        <v>0.54249999999999998</v>
+      </c>
+      <c r="I14" s="23">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="19"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>1.7</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5">
-        <v>58.06</v>
-      </c>
-      <c r="D15" s="5">
-        <v>57.81</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="4">
+      <c r="B15" s="26">
+        <v>0.57935000000000003</v>
+      </c>
+      <c r="C15" s="25">
+        <v>1.2499999999999734E-3</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="23">
+        <f>58.06/100</f>
+        <v>0.5806</v>
+      </c>
+      <c r="F15" s="23">
+        <f>57.81/100</f>
+        <v>0.57810000000000006</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="22">
         <f t="shared" si="1"/>
-        <v>57.935000000000002</v>
-      </c>
-      <c r="G15" s="5">
+        <v>0.57935000000000003</v>
+      </c>
+      <c r="I15" s="23">
         <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="19"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.2499999999999734E-3</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>1.8</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5">
-        <v>57.75</v>
-      </c>
-      <c r="D16" s="5">
-        <v>56.56</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="4">
+      <c r="B16" s="26">
+        <v>0.57155</v>
+      </c>
+      <c r="C16" s="25">
+        <v>5.9500000000000108E-3</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="23">
+        <f>57.75/100</f>
+        <v>0.57750000000000001</v>
+      </c>
+      <c r="F16" s="23">
+        <f>56.56/100</f>
+        <v>0.56559999999999999</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="22">
         <f t="shared" si="1"/>
-        <v>57.155000000000001</v>
-      </c>
-      <c r="G16" s="5">
+        <v>0.57155</v>
+      </c>
+      <c r="I16" s="23">
         <f t="shared" si="0"/>
-        <v>0.59499999999999886</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.9500000000000108E-3</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1.9</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5">
-        <v>71.81</v>
-      </c>
-      <c r="D17" s="5">
-        <v>70.12</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="4">
+      <c r="B17" s="26">
+        <v>0.70965000000000011</v>
+      </c>
+      <c r="C17" s="25">
+        <v>8.4500000000000686E-3</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="23">
+        <f>71.81/100</f>
+        <v>0.71810000000000007</v>
+      </c>
+      <c r="F17" s="23">
+        <f>70.12/100</f>
+        <v>0.70120000000000005</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="22">
         <f t="shared" si="1"/>
-        <v>70.965000000000003</v>
-      </c>
-      <c r="G17" s="5">
+        <v>0.70965000000000011</v>
+      </c>
+      <c r="I17" s="23">
         <f t="shared" si="0"/>
-        <v>0.84499999999999886</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.4500000000000686E-3</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5">
-        <v>80.5</v>
-      </c>
-      <c r="D18" s="5">
-        <v>72.69</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="4">
+      <c r="B18" s="26">
+        <v>0.76595000000000002</v>
+      </c>
+      <c r="C18" s="25">
+        <v>3.9050000000000029E-2</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="23">
+        <f>80.5/100</f>
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="F18" s="23">
+        <f>72.69/100</f>
+        <v>0.72689999999999999</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="22">
         <f t="shared" si="1"/>
-        <v>76.594999999999999</v>
-      </c>
-      <c r="G18" s="5">
+        <v>0.76595000000000002</v>
+      </c>
+      <c r="I18" s="23">
         <f t="shared" si="0"/>
-        <v>3.9050000000000011</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.9050000000000029E-2</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="19"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2.1</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5">
-        <v>78.88</v>
-      </c>
-      <c r="D19" s="5">
-        <v>77.19</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="4">
+      <c r="B19" s="26">
+        <v>0.78034999999999999</v>
+      </c>
+      <c r="C19" s="25">
+        <v>8.4499999999999575E-3</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="23">
+        <f>78.88/100</f>
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="F19" s="23">
+        <f>77.19/100</f>
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="22">
         <f t="shared" si="1"/>
-        <v>78.034999999999997</v>
-      </c>
-      <c r="G19" s="5">
+        <v>0.78034999999999999</v>
+      </c>
+      <c r="I19" s="23">
         <f t="shared" si="0"/>
-        <v>0.84499999999999886</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="19"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.4499999999999575E-3</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5">
-        <v>85.06</v>
-      </c>
-      <c r="D20" s="5">
-        <v>82.56</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="4">
+      <c r="B20" s="26">
+        <v>0.83810000000000007</v>
+      </c>
+      <c r="C20" s="25">
+        <v>1.2500000000000067E-2</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="23">
+        <f>85.06/100</f>
+        <v>0.85060000000000002</v>
+      </c>
+      <c r="F20" s="23">
+        <f>82.56/100</f>
+        <v>0.8256</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="22">
         <f t="shared" si="1"/>
-        <v>83.81</v>
-      </c>
-      <c r="G20" s="5">
+        <v>0.83810000000000007</v>
+      </c>
+      <c r="I20" s="23">
         <f t="shared" si="0"/>
-        <v>1.25</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="19"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.2500000000000067E-2</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5">
-        <v>87.38</v>
-      </c>
-      <c r="D21" s="5">
-        <v>85.62</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="4">
+      <c r="B21" s="26">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="C21" s="25">
+        <v>8.799999999999919E-3</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="23">
+        <f>87.38/100</f>
+        <v>0.87379999999999991</v>
+      </c>
+      <c r="F21" s="23">
+        <f>85.62/100</f>
+        <v>0.85620000000000007</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="22">
         <f t="shared" si="1"/>
-        <v>86.5</v>
-      </c>
-      <c r="G21" s="5">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="I21" s="23">
         <f t="shared" si="0"/>
-        <v>0.87999999999999545</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="19"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.799999999999919E-3</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="19"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>2.4</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5">
-        <v>86.5</v>
-      </c>
-      <c r="D22" s="5">
-        <v>86.06</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="4">
+      <c r="B22" s="26">
+        <v>0.86280000000000001</v>
+      </c>
+      <c r="C22" s="25">
+        <v>2.1999999999999797E-3</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="23">
+        <f>86.5/100</f>
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="F22" s="23">
+        <f>86.06/100</f>
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="22">
         <f t="shared" si="1"/>
-        <v>86.28</v>
-      </c>
-      <c r="G22" s="5">
+        <v>0.86280000000000001</v>
+      </c>
+      <c r="I22" s="23">
         <f t="shared" si="0"/>
-        <v>0.21999999999999886</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="19"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.1999999999999797E-3</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="19"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2.5</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5">
-        <v>88.19</v>
-      </c>
-      <c r="D23" s="5">
-        <v>86</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="4">
+      <c r="B23" s="26">
+        <v>0.87095</v>
+      </c>
+      <c r="C23" s="25">
+        <v>1.0950000000000015E-2</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="23">
+        <f>88.19/100</f>
+        <v>0.88190000000000002</v>
+      </c>
+      <c r="F23" s="23">
+        <f>86/100</f>
+        <v>0.86</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="22">
         <f t="shared" si="1"/>
-        <v>87.094999999999999</v>
-      </c>
-      <c r="G23" s="5">
+        <v>0.87095</v>
+      </c>
+      <c r="I23" s="23">
         <f t="shared" si="0"/>
-        <v>1.0949999999999989</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="19"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0950000000000015E-2</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="19"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
-      <c r="B24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="19"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="19"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
-      <c r="B25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="19"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="19"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
-      <c r="B26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="19"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="19"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
-      <c r="B27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="19"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="19"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
-      <c r="B28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="19"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="19"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="19"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="19"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
-      <c r="B30" s="5"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="19"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/dados iypt.xlsx
+++ b/dados iypt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maviv\flado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DB6E4C-8759-4A2F-BEB9-F817BD020CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444714E3-998C-464D-83CF-A27F7BD79559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA78291E-974B-4465-8370-FB667613188C}"/>
   </bookViews>
@@ -35,33 +35,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>A: H/R - eixo X</t>
   </si>
   <si>
-    <t>B e F: média de C e D (pontos do gráfico)</t>
+    <t>(1826 -&gt; 1973)</t>
   </si>
   <si>
-    <t>C e G: barras de erro</t>
+    <t>C: incerteza estatística (barras de erro)</t>
   </si>
   <si>
-    <t>E: probabilidade de lado obtida em 100 lançamentos</t>
+    <t>G e H: resultados obtidos em 100 lançamentos cada</t>
   </si>
   <si>
-    <t>F: probabilidade de lado obtida em mais 100 lançamentos</t>
+    <t>I: média de G e H (pontos antigos)</t>
+  </si>
+  <si>
+    <t>B e M: pontos novos para o gráfico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +91,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -98,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -155,58 +165,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -225,47 +191,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -323,7 +272,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t>  x  q</a:t>
+              <a:t>  x  q (antigo)</a:t>
             </a:r>
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
@@ -393,7 +342,7 @@
             <c:numRef>
               <c:f>Planilha1!$A$1:$A$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0.3</c:v>
@@ -469,9 +418,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Planilha1!$H$1:$H$23</c:f>
+              <c:f>Planilha1!$I$1:$I$23</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>4.53E-2</c:v>
@@ -584,7 +533,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -646,7 +595,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -684,6 +633,461 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="339145567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>P_L</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> x q (novo)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$A$1:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$M$1:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>3.1250000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1250000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1875E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.59375E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3124999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3124999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.166875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.176875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22625000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.31843749999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39218750000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43406250000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.56468750000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.61656250000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.70843750000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.76406249999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.83750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.86468750000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.8621875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.87093750000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A28-466F-B1DB-C50AE1ABAA47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="500436464"/>
+        <c:axId val="500434864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="500436464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="500434864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="500434864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="500436464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -779,6 +1183,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1295,20 +1739,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>141922</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>86677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>461962</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>155257</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1328,6 +2288,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80E1A1CE-C20F-4293-027D-B06E097E5882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1633,919 +2629,919 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1E2169-3F9B-405F-A670-20887203AD7B}">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="9.109375" style="21"/>
-    <col min="4" max="4" width="8.88671875" style="21"/>
-    <col min="5" max="10" width="9.109375" style="21"/>
-    <col min="11" max="11" width="9.109375" style="20"/>
+    <col min="1" max="1" width="9.109375" style="16"/>
+    <col min="2" max="2" width="8.88671875" style="16"/>
+    <col min="3" max="3" width="9.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.88671875" style="17"/>
+    <col min="7" max="8" width="9.109375" style="17"/>
+    <col min="9" max="9" width="8.88671875" style="17"/>
+    <col min="11" max="13" width="9.109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3">
+    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10">
         <v>0.3</v>
       </c>
-      <c r="B1" s="28">
-        <v>4.53E-2</v>
-      </c>
-      <c r="C1" s="27">
-        <v>2.7199999999999995E-2</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="22">
+      <c r="B1" s="13">
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="C1" s="11">
+        <v>4.62E-3</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12">
         <f>1.81/100</f>
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F1" s="22">
+      <c r="H1" s="12">
         <f>7.25/100</f>
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="22">
-        <f>AVERAGE(E1:F1)</f>
+      <c r="I1" s="12">
+        <f>AVERAGE(G1:H1)</f>
         <v>4.53E-2</v>
       </c>
-      <c r="I1" s="23">
-        <f>((F1-H1)^2)^0.5</f>
-        <v>2.7199999999999995E-2</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13">
+        <v>3.1250000000000001E-4</v>
+      </c>
       <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
         <v>0.4</v>
       </c>
-      <c r="B2" s="28">
-        <v>3.0600000000000002E-2</v>
-      </c>
-      <c r="C2" s="27">
-        <v>7.5000000000000032E-3</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="22">
+      <c r="B2" s="13">
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="C2" s="11">
+        <v>3.0699999999999998E-3</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12">
         <f>3.81/100</f>
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="F2" s="22">
+      <c r="H2" s="12">
         <f>2.31/100</f>
         <v>2.3099999999999999E-2</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="22">
-        <f>AVERAGE(E2:F2)</f>
+      <c r="I2" s="12">
+        <f>AVERAGE(G2:H2)</f>
         <v>3.0600000000000002E-2</v>
       </c>
-      <c r="I2" s="23">
-        <f t="shared" ref="I2:I23" si="0">((F2-H2)^2)^0.5</f>
-        <v>7.5000000000000032E-3</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13">
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="11"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>0.5</v>
       </c>
-      <c r="B3" s="28">
-        <v>3.8449999999999998E-2</v>
-      </c>
-      <c r="C3" s="29">
-        <v>4.050000000000005E-3</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="22">
+      <c r="B3" s="13">
+        <v>1.1875E-2</v>
+      </c>
+      <c r="C3" s="14">
+        <v>3.7200000000000002E-3</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="12">
         <f>3.44/100</f>
         <v>3.44E-2</v>
       </c>
-      <c r="F3" s="22">
+      <c r="H3" s="12">
         <f>4.25/100</f>
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="22">
-        <f t="shared" ref="H3:H23" si="1">AVERAGE(E3:F3)</f>
+      <c r="I3" s="12">
+        <f>AVERAGE(G3:H3)</f>
         <v>3.8449999999999998E-2</v>
       </c>
-      <c r="I3" s="23">
-        <f t="shared" si="0"/>
-        <v>4.050000000000005E-3</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="11"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13">
+        <v>1.1875E-2</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="9"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="7"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>0.6</v>
       </c>
-      <c r="B4" s="28">
-        <v>2.4399999999999998E-2</v>
-      </c>
-      <c r="C4" s="29">
-        <v>2.4999999999999988E-3</v>
-      </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="22">
+      <c r="B4" s="13">
+        <v>1.59375E-2</v>
+      </c>
+      <c r="C4" s="14">
+        <v>2.8300000000000001E-3</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="12">
         <f>2.69/100</f>
         <v>2.69E-2</v>
       </c>
-      <c r="F4" s="22">
+      <c r="H4" s="12">
         <f>2.19/100</f>
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="22">
-        <f t="shared" si="1"/>
+      <c r="I4" s="12">
+        <f>AVERAGE(G4:H4)</f>
         <v>2.4399999999999998E-2</v>
       </c>
-      <c r="I4" s="23">
-        <f t="shared" si="0"/>
-        <v>2.4999999999999988E-3</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="11"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13">
+        <v>1.59375E-2</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="9"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="7"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>0.7</v>
       </c>
-      <c r="B5" s="28">
-        <v>4.7200000000000006E-2</v>
-      </c>
-      <c r="C5" s="29">
-        <v>2.2000000000000006E-3</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="22">
+      <c r="B5" s="13">
+        <v>4.3124999999999997E-2</v>
+      </c>
+      <c r="C5" s="14">
+        <v>3.4199999999999999E-3</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="12">
         <f>4.5/100</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F5" s="22">
+      <c r="H5" s="12">
         <f>4.94/100</f>
         <v>4.9400000000000006E-2</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="22">
-        <f t="shared" si="1"/>
+      <c r="I5" s="12">
+        <f>AVERAGE(G5:H5)</f>
         <v>4.7200000000000006E-2</v>
       </c>
-      <c r="I5" s="23">
-        <f t="shared" si="0"/>
-        <v>2.2000000000000006E-3</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="17"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="11"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13">
+        <v>4.3124999999999997E-2</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="9"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="7"/>
     </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
         <v>0.8</v>
       </c>
-      <c r="B6" s="28">
-        <v>0.14030000000000001</v>
-      </c>
-      <c r="C6" s="29">
-        <v>5.5299999999999988E-2</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="22">
+      <c r="B6" s="13">
+        <v>7.3124999999999996E-2</v>
+      </c>
+      <c r="C6" s="14">
+        <v>7.2300000000000003E-3</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="12">
         <f>8.5/100</f>
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F6" s="22">
+      <c r="H6" s="12">
         <f>19.56/100</f>
         <v>0.1956</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="22">
-        <f t="shared" si="1"/>
+      <c r="I6" s="12">
+        <f>AVERAGE(G6:H6)</f>
         <v>0.14030000000000001</v>
       </c>
-      <c r="I6" s="23">
-        <f t="shared" si="0"/>
-        <v>5.5299999999999988E-2</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="11"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13">
+        <v>7.3124999999999996E-2</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="9"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="7"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
         <v>0.9</v>
       </c>
-      <c r="B7" s="28">
-        <v>0.1956</v>
-      </c>
-      <c r="C7" s="29">
-        <v>3.4399999999999986E-2</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="22">
+      <c r="B7" s="13">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="C7" s="14">
+        <v>7.6800000000000002E-3</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="12">
         <f>23/100</f>
         <v>0.23</v>
       </c>
-      <c r="F7" s="22">
+      <c r="H7" s="12">
         <f>16.12/100</f>
         <v>0.16120000000000001</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="22">
-        <f t="shared" si="1"/>
+      <c r="I7" s="12">
+        <f>AVERAGE(G7:H7)</f>
         <v>0.1956</v>
       </c>
-      <c r="I7" s="23">
-        <f t="shared" si="0"/>
-        <v>3.4399999999999986E-2</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13">
+        <v>0.11749999999999999</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="26">
-        <v>0.23535</v>
-      </c>
-      <c r="C8" s="24">
-        <v>1.1550000000000005E-2</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="22">
+      <c r="B8" s="13">
+        <v>0.166875</v>
+      </c>
+      <c r="C8" s="12">
+        <v>7.9600000000000001E-3</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12">
         <f>22.38/100</f>
         <v>0.2238</v>
       </c>
-      <c r="F8" s="22">
+      <c r="H8" s="12">
         <f>24.69/100</f>
         <v>0.24690000000000001</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="22">
-        <f t="shared" si="1"/>
+      <c r="I8" s="12">
+        <f>AVERAGE(G8:H8)</f>
         <v>0.23535</v>
       </c>
-      <c r="I8" s="23">
-        <f t="shared" si="0"/>
-        <v>1.1550000000000005E-2</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13">
+        <v>0.166875</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="26">
-        <v>0.21279999999999999</v>
-      </c>
-      <c r="C9" s="24">
-        <v>2.5299999999999989E-2</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="22">
+      <c r="B9" s="13">
+        <v>0.176875</v>
+      </c>
+      <c r="C9" s="12">
+        <v>7.7299999999999999E-3</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12">
         <f>23.81/100</f>
         <v>0.23809999999999998</v>
       </c>
-      <c r="F9" s="22">
+      <c r="H9" s="12">
         <f>18.75/100</f>
         <v>0.1875</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="22">
-        <f t="shared" si="1"/>
+      <c r="I9" s="12">
+        <f>AVERAGE(G9:H9)</f>
         <v>0.21279999999999999</v>
       </c>
-      <c r="I9" s="23">
-        <f t="shared" si="0"/>
-        <v>2.5299999999999989E-2</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13">
+        <v>0.176875</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
         <v>1.2</v>
       </c>
-      <c r="B10" s="26">
-        <v>0.27655000000000002</v>
-      </c>
-      <c r="C10" s="24">
-        <v>1.9650000000000001E-2</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="22">
+      <c r="B10" s="13">
+        <v>0.22625000000000001</v>
+      </c>
+      <c r="C10" s="12">
+        <v>8.7100000000000007E-3</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12">
         <f>25.69/100</f>
         <v>0.25690000000000002</v>
       </c>
-      <c r="F10" s="22">
+      <c r="H10" s="12">
         <f>29.62/100</f>
         <v>0.29620000000000002</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="22">
-        <f t="shared" si="1"/>
+      <c r="I10" s="12">
+        <f>AVERAGE(G10:H10)</f>
         <v>0.27655000000000002</v>
       </c>
-      <c r="I10" s="23">
-        <f t="shared" si="0"/>
-        <v>1.9650000000000001E-2</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13">
+        <v>0.22625000000000001</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>1.3</v>
       </c>
-      <c r="B11" s="26">
-        <v>0.39560000000000001</v>
-      </c>
-      <c r="C11" s="25">
-        <v>5.0000000000000044E-3</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="23">
+      <c r="B11" s="13">
+        <v>0.31843749999999998</v>
+      </c>
+      <c r="C11" s="13">
+        <v>9.3900000000000008E-3</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13">
         <f>40.06/100</f>
         <v>0.40060000000000001</v>
       </c>
-      <c r="F11" s="23">
+      <c r="H11" s="13">
         <f>39.06/100</f>
         <v>0.3906</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="22">
-        <f t="shared" si="1"/>
+      <c r="I11" s="12">
+        <f>AVERAGE(G11:H11)</f>
         <v>0.39560000000000001</v>
       </c>
-      <c r="I11" s="23">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000044E-3</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13">
+        <v>0.31843749999999998</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
         <v>1.4</v>
       </c>
-      <c r="B12" s="26">
-        <v>0.41565000000000002</v>
-      </c>
-      <c r="C12" s="25">
-        <v>1.1849999999999972E-2</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="23">
+      <c r="B12" s="13">
+        <v>0.39218750000000002</v>
+      </c>
+      <c r="C12" s="13">
+        <v>8.9099999999999995E-3</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13">
         <f>40.38/100</f>
         <v>0.40380000000000005</v>
       </c>
-      <c r="F12" s="23">
+      <c r="H12" s="13">
         <f>42.75/100</f>
         <v>0.42749999999999999</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="22">
-        <f t="shared" si="1"/>
+      <c r="I12" s="12">
+        <f>AVERAGE(G12:H12)</f>
         <v>0.41565000000000002</v>
       </c>
-      <c r="I12" s="23">
-        <f t="shared" si="0"/>
-        <v>1.1849999999999972E-2</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13">
+        <v>0.39218750000000002</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
         <v>1.5</v>
       </c>
-      <c r="B13" s="26">
-        <v>0.45905000000000001</v>
-      </c>
-      <c r="C13" s="25">
-        <v>3.0949999999999978E-2</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="23">
+      <c r="B13" s="13">
+        <v>0.43406250000000002</v>
+      </c>
+      <c r="C13" s="13">
+        <v>9.4400000000000005E-3</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13">
         <f>49/100</f>
         <v>0.49</v>
       </c>
-      <c r="F13" s="23">
+      <c r="H13" s="13">
         <f>42.81/100</f>
         <v>0.42810000000000004</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="22">
-        <f t="shared" si="1"/>
+      <c r="I13" s="12">
+        <f>AVERAGE(G13:H13)</f>
         <v>0.45905000000000001</v>
       </c>
-      <c r="I13" s="23">
-        <f t="shared" si="0"/>
-        <v>3.0949999999999978E-2</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="19"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13">
+        <v>0.43406250000000002</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>1.6</v>
       </c>
-      <c r="B14" s="26">
-        <v>0.54249999999999998</v>
-      </c>
-      <c r="C14" s="25">
-        <v>2.5000000000000022E-2</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="23">
+      <c r="B14" s="13">
+        <v>0.52</v>
+      </c>
+      <c r="C14" s="13">
+        <v>9.2399999999999999E-3</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13">
         <f>51.75/100</f>
         <v>0.51749999999999996</v>
       </c>
-      <c r="F14" s="23">
+      <c r="H14" s="13">
         <f>56.75/100</f>
         <v>0.5675</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="22">
-        <f t="shared" si="1"/>
+      <c r="I14" s="12">
+        <f>AVERAGE(G14:H14)</f>
         <v>0.54249999999999998</v>
       </c>
-      <c r="I14" s="23">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000022E-2</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="19"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>1.7</v>
       </c>
-      <c r="B15" s="26">
-        <v>0.57935000000000003</v>
-      </c>
-      <c r="C15" s="25">
-        <v>1.2499999999999734E-3</v>
-      </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="23">
+      <c r="B15" s="13">
+        <v>0.56468750000000001</v>
+      </c>
+      <c r="C15" s="13">
+        <v>9.41E-3</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13">
         <f>58.06/100</f>
         <v>0.5806</v>
       </c>
-      <c r="F15" s="23">
+      <c r="H15" s="13">
         <f>57.81/100</f>
         <v>0.57810000000000006</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="22">
-        <f t="shared" si="1"/>
+      <c r="I15" s="12">
+        <f>AVERAGE(G15:H15)</f>
         <v>0.57935000000000003</v>
       </c>
-      <c r="I15" s="23">
-        <f t="shared" si="0"/>
-        <v>1.2499999999999734E-3</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="19"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13">
+        <v>0.56468750000000001</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>1.8</v>
       </c>
-      <c r="B16" s="26">
-        <v>0.57155</v>
-      </c>
-      <c r="C16" s="25">
-        <v>5.9500000000000108E-3</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="23">
+      <c r="B16" s="13">
+        <v>0.61656250000000001</v>
+      </c>
+      <c r="C16" s="13">
+        <v>8.1300000000000001E-3</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13">
         <f>57.75/100</f>
         <v>0.57750000000000001</v>
       </c>
-      <c r="F16" s="23">
+      <c r="H16" s="13">
         <f>56.56/100</f>
         <v>0.56559999999999999</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="22">
-        <f t="shared" si="1"/>
+      <c r="I16" s="12">
+        <f>AVERAGE(G16:H16)</f>
         <v>0.57155</v>
       </c>
-      <c r="I16" s="23">
-        <f t="shared" si="0"/>
-        <v>5.9500000000000108E-3</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="19"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13">
+        <v>0.61656250000000001</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>1.9</v>
       </c>
-      <c r="B17" s="26">
-        <v>0.70965000000000011</v>
-      </c>
-      <c r="C17" s="25">
-        <v>8.4500000000000686E-3</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="23">
+      <c r="B17" s="13">
+        <v>0.70843750000000005</v>
+      </c>
+      <c r="C17" s="13">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13">
         <f>71.81/100</f>
         <v>0.71810000000000007</v>
       </c>
-      <c r="F17" s="23">
+      <c r="H17" s="13">
         <f>70.12/100</f>
         <v>0.70120000000000005</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="22">
-        <f t="shared" si="1"/>
+      <c r="I17" s="12">
+        <f>AVERAGE(G17:H17)</f>
         <v>0.70965000000000011</v>
       </c>
-      <c r="I17" s="23">
-        <f t="shared" si="0"/>
-        <v>8.4500000000000686E-3</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="19"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13">
+        <v>0.70843750000000005</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
         <v>2</v>
       </c>
-      <c r="B18" s="26">
-        <v>0.76595000000000002</v>
-      </c>
-      <c r="C18" s="25">
-        <v>3.9050000000000029E-2</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="23">
+      <c r="B18" s="13">
+        <v>0.76406249999999998</v>
+      </c>
+      <c r="C18" s="13">
+        <v>7.6400000000000001E-3</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13">
         <f>80.5/100</f>
         <v>0.80500000000000005</v>
       </c>
-      <c r="F18" s="23">
+      <c r="H18" s="13">
         <f>72.69/100</f>
         <v>0.72689999999999999</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="22">
-        <f t="shared" si="1"/>
+      <c r="I18" s="12">
+        <f>AVERAGE(G18:H18)</f>
         <v>0.76595000000000002</v>
       </c>
-      <c r="I18" s="23">
-        <f t="shared" si="0"/>
-        <v>3.9050000000000029E-2</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="19"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13">
+        <v>0.76406249999999998</v>
+      </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
         <v>2.1</v>
       </c>
-      <c r="B19" s="26">
-        <v>0.78034999999999999</v>
-      </c>
-      <c r="C19" s="25">
-        <v>8.4499999999999575E-3</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="23">
+      <c r="B19" s="13">
+        <v>0.78</v>
+      </c>
+      <c r="C19" s="13">
+        <v>6.96E-3</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13">
         <f>78.88/100</f>
         <v>0.78879999999999995</v>
       </c>
-      <c r="F19" s="23">
+      <c r="H19" s="13">
         <f>77.19/100</f>
         <v>0.77190000000000003</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="22">
-        <f t="shared" si="1"/>
+      <c r="I19" s="12">
+        <f>AVERAGE(G19:H19)</f>
         <v>0.78034999999999999</v>
       </c>
-      <c r="I19" s="23">
-        <f t="shared" si="0"/>
-        <v>8.4499999999999575E-3</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="19"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13">
+        <v>0.78</v>
+      </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B20" s="26">
-        <v>0.83810000000000007</v>
-      </c>
-      <c r="C20" s="25">
-        <v>1.2500000000000067E-2</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="23">
+      <c r="B20" s="13">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="C20" s="13">
+        <v>6.2399999999999999E-3</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13">
         <f>85.06/100</f>
         <v>0.85060000000000002</v>
       </c>
-      <c r="F20" s="23">
+      <c r="H20" s="13">
         <f>82.56/100</f>
         <v>0.8256</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="22">
-        <f t="shared" si="1"/>
+      <c r="I20" s="12">
+        <f>AVERAGE(G20:H20)</f>
         <v>0.83810000000000007</v>
       </c>
-      <c r="I20" s="23">
-        <f t="shared" si="0"/>
-        <v>1.2500000000000067E-2</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="19"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13">
+        <v>0.83750000000000002</v>
+      </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B21" s="26">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="C21" s="25">
-        <v>8.799999999999919E-3</v>
-      </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="23">
+      <c r="B21" s="13">
+        <v>0.86468750000000005</v>
+      </c>
+      <c r="C21" s="13">
+        <v>5.7499999999999999E-3</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13">
         <f>87.38/100</f>
         <v>0.87379999999999991</v>
       </c>
-      <c r="F21" s="23">
+      <c r="H21" s="13">
         <f>85.62/100</f>
         <v>0.85620000000000007</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="22">
-        <f t="shared" si="1"/>
+      <c r="I21" s="12">
+        <f>AVERAGE(G21:H21)</f>
         <v>0.86499999999999999</v>
       </c>
-      <c r="I21" s="23">
-        <f t="shared" si="0"/>
-        <v>8.799999999999919E-3</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="19"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13">
+        <v>0.86468750000000005</v>
+      </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
         <v>2.4</v>
       </c>
-      <c r="B22" s="26">
-        <v>0.86280000000000001</v>
-      </c>
-      <c r="C22" s="25">
-        <v>2.1999999999999797E-3</v>
-      </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="23">
+      <c r="B22" s="13">
+        <v>0.8621875</v>
+      </c>
+      <c r="C22" s="13">
+        <v>5.77E-3</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13">
         <f>86.5/100</f>
         <v>0.86499999999999999</v>
       </c>
-      <c r="F22" s="23">
+      <c r="H22" s="13">
         <f>86.06/100</f>
         <v>0.86060000000000003</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="22">
-        <f t="shared" si="1"/>
+      <c r="I22" s="12">
+        <f>AVERAGE(G22:H22)</f>
         <v>0.86280000000000001</v>
       </c>
-      <c r="I22" s="23">
-        <f t="shared" si="0"/>
-        <v>2.1999999999999797E-3</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="19"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13">
+        <v>0.8621875</v>
+      </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
         <v>2.5</v>
       </c>
-      <c r="B23" s="26">
-        <v>0.87095</v>
-      </c>
-      <c r="C23" s="25">
-        <v>1.0950000000000015E-2</v>
-      </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="23">
+      <c r="B23" s="13">
+        <v>0.87093750000000003</v>
+      </c>
+      <c r="C23" s="13">
+        <v>6.5700000000000003E-3</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13">
         <f>88.19/100</f>
         <v>0.88190000000000002</v>
       </c>
-      <c r="F23" s="23">
+      <c r="H23" s="13">
         <f>86/100</f>
         <v>0.86</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="22">
-        <f t="shared" si="1"/>
+      <c r="I23" s="12">
+        <f>AVERAGE(G23:H23)</f>
         <v>0.87095</v>
       </c>
-      <c r="I23" s="23">
-        <f t="shared" si="0"/>
-        <v>1.0950000000000015E-2</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="19"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13">
+        <v>0.87093750000000003</v>
+      </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="19"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="19"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="19"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="19"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="19"/>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="19"/>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="19"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/dados iypt.xlsx
+++ b/dados iypt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maviv\flado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e7a01b2c0ff13c9a/Área de Trabalho/flado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444714E3-998C-464D-83CF-A27F7BD79559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{444714E3-998C-464D-83CF-A27F7BD79559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD8A7D12-3F8E-4D9A-A1E4-788C161F6985}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA78291E-974B-4465-8370-FB667613188C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA78291E-974B-4465-8370-FB667613188C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -2632,21 +2632,21 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="16"/>
-    <col min="2" max="2" width="8.88671875" style="16"/>
-    <col min="3" max="3" width="9.44140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.88671875" style="17"/>
-    <col min="7" max="8" width="9.109375" style="17"/>
-    <col min="9" max="9" width="8.88671875" style="17"/>
-    <col min="11" max="13" width="9.109375" style="17"/>
+    <col min="1" max="1" width="9.140625" style="16"/>
+    <col min="2" max="2" width="8.85546875" style="16"/>
+    <col min="3" max="3" width="9.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.85546875" style="17"/>
+    <col min="7" max="8" width="9.140625" style="17"/>
+    <col min="9" max="9" width="8.85546875" style="17"/>
+    <col min="11" max="13" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10">
         <v>0.3</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="I1" s="12">
-        <f>AVERAGE(G1:H1)</f>
+        <f t="shared" ref="I1:I23" si="0">AVERAGE(G1:H1)</f>
         <v>4.53E-2</v>
       </c>
       <c r="K1" s="13"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>0.4</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>2.3099999999999999E-2</v>
       </c>
       <c r="I2" s="12">
-        <f>AVERAGE(G2:H2)</f>
+        <f t="shared" si="0"/>
         <v>3.0600000000000002E-2</v>
       </c>
       <c r="K2" s="13"/>
@@ -2717,7 +2717,7 @@
       <c r="U2" s="3"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>0.5</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>4.2500000000000003E-2</v>
       </c>
       <c r="I3" s="12">
-        <f>AVERAGE(G3:H3)</f>
+        <f t="shared" si="0"/>
         <v>3.8449999999999998E-2</v>
       </c>
       <c r="K3" s="13"/>
@@ -2756,7 +2756,7 @@
       <c r="U3" s="6"/>
       <c r="V3" s="7"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>0.6</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>2.1899999999999999E-2</v>
       </c>
       <c r="I4" s="12">
-        <f>AVERAGE(G4:H4)</f>
+        <f t="shared" si="0"/>
         <v>2.4399999999999998E-2</v>
       </c>
       <c r="K4" s="13"/>
@@ -2795,7 +2795,7 @@
       <c r="U4" s="6"/>
       <c r="V4" s="7"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>0.7</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>4.9400000000000006E-2</v>
       </c>
       <c r="I5" s="12">
-        <f>AVERAGE(G5:H5)</f>
+        <f t="shared" si="0"/>
         <v>4.7200000000000006E-2</v>
       </c>
       <c r="K5" s="13"/>
@@ -2834,7 +2834,7 @@
       <c r="U5" s="6"/>
       <c r="V5" s="7"/>
     </row>
-    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>0.8</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>0.1956</v>
       </c>
       <c r="I6" s="12">
-        <f>AVERAGE(G6:H6)</f>
+        <f t="shared" si="0"/>
         <v>0.14030000000000001</v>
       </c>
       <c r="K6" s="13"/>
@@ -2873,7 +2873,7 @@
       <c r="U6" s="6"/>
       <c r="V6" s="7"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>0.9</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>0.16120000000000001</v>
       </c>
       <c r="I7" s="12">
-        <f>AVERAGE(G7:H7)</f>
+        <f t="shared" si="0"/>
         <v>0.1956</v>
       </c>
       <c r="K7" s="13"/>
@@ -2911,7 +2911,7 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>1</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>0.24690000000000001</v>
       </c>
       <c r="I8" s="12">
-        <f>AVERAGE(G8:H8)</f>
+        <f t="shared" si="0"/>
         <v>0.23535</v>
       </c>
       <c r="K8" s="13"/>
@@ -2949,7 +2949,7 @@
       <c r="U8" s="19"/>
       <c r="V8" s="19"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>1.1000000000000001</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>0.1875</v>
       </c>
       <c r="I9" s="12">
-        <f>AVERAGE(G9:H9)</f>
+        <f t="shared" si="0"/>
         <v>0.21279999999999999</v>
       </c>
       <c r="K9" s="13"/>
@@ -2987,7 +2987,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>1.2</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>0.29620000000000002</v>
       </c>
       <c r="I10" s="12">
-        <f>AVERAGE(G10:H10)</f>
+        <f t="shared" si="0"/>
         <v>0.27655000000000002</v>
       </c>
       <c r="K10" s="13"/>
@@ -3025,7 +3025,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>1.3</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>0.3906</v>
       </c>
       <c r="I11" s="12">
-        <f>AVERAGE(G11:H11)</f>
+        <f t="shared" si="0"/>
         <v>0.39560000000000001</v>
       </c>
       <c r="K11" s="13"/>
@@ -3063,7 +3063,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>1.4</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>0.42749999999999999</v>
       </c>
       <c r="I12" s="12">
-        <f>AVERAGE(G12:H12)</f>
+        <f t="shared" si="0"/>
         <v>0.41565000000000002</v>
       </c>
       <c r="K12" s="13"/>
@@ -3101,7 +3101,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>1.5</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>0.42810000000000004</v>
       </c>
       <c r="I13" s="12">
-        <f>AVERAGE(G13:H13)</f>
+        <f t="shared" si="0"/>
         <v>0.45905000000000001</v>
       </c>
       <c r="K13" s="13"/>
@@ -3132,7 +3132,7 @@
         <v>0.43406250000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>1.6</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>0.5675</v>
       </c>
       <c r="I14" s="12">
-        <f>AVERAGE(G14:H14)</f>
+        <f t="shared" si="0"/>
         <v>0.54249999999999998</v>
       </c>
       <c r="K14" s="13"/>
@@ -3163,7 +3163,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>1.7</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>0.57810000000000006</v>
       </c>
       <c r="I15" s="12">
-        <f>AVERAGE(G15:H15)</f>
+        <f t="shared" si="0"/>
         <v>0.57935000000000003</v>
       </c>
       <c r="K15" s="13"/>
@@ -3194,7 +3194,7 @@
         <v>0.56468750000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>1.8</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0.56559999999999999</v>
       </c>
       <c r="I16" s="12">
-        <f>AVERAGE(G16:H16)</f>
+        <f t="shared" si="0"/>
         <v>0.57155</v>
       </c>
       <c r="K16" s="13"/>
@@ -3228,7 +3228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>1.9</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>0.70120000000000005</v>
       </c>
       <c r="I17" s="12">
-        <f>AVERAGE(G17:H17)</f>
+        <f t="shared" si="0"/>
         <v>0.70965000000000011</v>
       </c>
       <c r="K17" s="13"/>
@@ -3259,7 +3259,7 @@
         <v>0.70843750000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>0.72689999999999999</v>
       </c>
       <c r="I18" s="12">
-        <f>AVERAGE(G18:H18)</f>
+        <f t="shared" si="0"/>
         <v>0.76595000000000002</v>
       </c>
       <c r="K18" s="13"/>
@@ -3290,7 +3290,7 @@
         <v>0.76406249999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2.1</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>0.77190000000000003</v>
       </c>
       <c r="I19" s="12">
-        <f>AVERAGE(G19:H19)</f>
+        <f t="shared" si="0"/>
         <v>0.78034999999999999</v>
       </c>
       <c r="K19" s="13"/>
@@ -3321,7 +3321,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2.2000000000000002</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>0.8256</v>
       </c>
       <c r="I20" s="12">
-        <f>AVERAGE(G20:H20)</f>
+        <f t="shared" si="0"/>
         <v>0.83810000000000007</v>
       </c>
       <c r="K20" s="13"/>
@@ -3352,7 +3352,7 @@
         <v>0.83750000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>2.2999999999999998</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>0.85620000000000007</v>
       </c>
       <c r="I21" s="12">
-        <f>AVERAGE(G21:H21)</f>
+        <f t="shared" si="0"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="K21" s="13"/>
@@ -3383,7 +3383,7 @@
         <v>0.86468750000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>2.4</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>0.86060000000000003</v>
       </c>
       <c r="I22" s="12">
-        <f>AVERAGE(G22:H22)</f>
+        <f t="shared" si="0"/>
         <v>0.86280000000000001</v>
       </c>
       <c r="K22" s="13"/>
@@ -3414,7 +3414,7 @@
         <v>0.8621875</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>2.5</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>0.86</v>
       </c>
       <c r="I23" s="12">
-        <f>AVERAGE(G23:H23)</f>
+        <f t="shared" si="0"/>
         <v>0.87095</v>
       </c>
       <c r="K23" s="13"/>
@@ -3445,7 +3445,7 @@
         <v>0.87093750000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="13"/>
@@ -3459,7 +3459,7 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="13"/>
@@ -3473,7 +3473,7 @@
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="13"/>
@@ -3487,7 +3487,7 @@
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="13"/>
@@ -3501,7 +3501,7 @@
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="13"/>
@@ -3515,7 +3515,7 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="13"/>
@@ -3529,7 +3529,7 @@
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="13"/>

--- a/dados iypt.xlsx
+++ b/dados iypt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e7a01b2c0ff13c9a/Área de Trabalho/flado/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\desenv\flado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{444714E3-998C-464D-83CF-A27F7BD79559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD8A7D12-3F8E-4D9A-A1E4-788C161F6985}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A256B34B-360F-4C4C-B747-309A253BDE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA78291E-974B-4465-8370-FB667613188C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA78291E-974B-4465-8370-FB667613188C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -217,8 +217,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -236,7 +236,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -691,7 +691,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2333,7 +2333,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2632,21 +2632,21 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="16"/>
-    <col min="2" max="2" width="8.85546875" style="16"/>
-    <col min="3" max="3" width="9.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.85546875" style="17"/>
-    <col min="7" max="8" width="9.140625" style="17"/>
-    <col min="9" max="9" width="8.85546875" style="17"/>
-    <col min="11" max="13" width="9.140625" style="17"/>
+    <col min="1" max="1" width="9.109375" style="16"/>
+    <col min="2" max="2" width="8.88671875" style="16"/>
+    <col min="3" max="3" width="9.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.88671875" style="17"/>
+    <col min="7" max="8" width="9.109375" style="17"/>
+    <col min="9" max="9" width="8.88671875" style="17"/>
+    <col min="11" max="13" width="9.109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10">
         <v>0.3</v>
       </c>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>0.4</v>
       </c>
@@ -2717,7 +2717,7 @@
       <c r="U2" s="3"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>0.5</v>
       </c>
@@ -2756,7 +2756,7 @@
       <c r="U3" s="6"/>
       <c r="V3" s="7"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>0.6</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="U4" s="6"/>
       <c r="V4" s="7"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>0.7</v>
       </c>
@@ -2834,7 +2834,7 @@
       <c r="U5" s="6"/>
       <c r="V5" s="7"/>
     </row>
-    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>0.8</v>
       </c>
@@ -2873,7 +2873,7 @@
       <c r="U6" s="6"/>
       <c r="V6" s="7"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>0.9</v>
       </c>
@@ -2911,7 +2911,7 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>1</v>
       </c>
@@ -2949,7 +2949,7 @@
       <c r="U8" s="19"/>
       <c r="V8" s="19"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>1.1000000000000001</v>
       </c>
@@ -2987,7 +2987,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>1.2</v>
       </c>
@@ -3025,7 +3025,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>1.3</v>
       </c>
@@ -3063,7 +3063,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>1.4</v>
       </c>
@@ -3101,7 +3101,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>1.5</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>0.43406250000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>1.6</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>1.7</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>0.56468750000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>1.8</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>1.9</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>0.70843750000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>2</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>0.76406249999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>2.1</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>2.2000000000000002</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>0.83750000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>2.2999999999999998</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>0.86468750000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>2.4</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>0.8621875</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>2.5</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>0.87093750000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="13"/>
@@ -3459,7 +3459,7 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="13"/>
@@ -3473,7 +3473,7 @@
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="13"/>
@@ -3487,7 +3487,7 @@
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="13"/>
@@ -3501,7 +3501,7 @@
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="13"/>
@@ -3515,7 +3515,7 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="13"/>
@@ -3529,7 +3529,7 @@
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="13"/>

--- a/dados iypt.xlsx
+++ b/dados iypt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\desenv\flado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A256B34B-360F-4C4C-B747-309A253BDE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600DEE33-C47A-4472-A5B6-D5D2FE9A51A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA78291E-974B-4465-8370-FB667613188C}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{CA78291E-974B-4465-8370-FB667613188C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -2631,7 +2631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1E2169-3F9B-405F-A670-20887203AD7B}">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I16" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
